--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB623D-D3DB-4595-8BDD-89826A2C403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9874FB-B4C7-4ACD-8A1C-CB960449EAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>オブジェクト指向問題　クラス図</t>
     <rPh sb="6" eb="8">
@@ -115,6 +115,18 @@
     <rPh sb="0" eb="2">
       <t>シャコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -525,6 +537,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,15 +553,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,28 +935,28 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
@@ -952,27 +964,29 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -986,7 +1000,9 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1012,9 @@
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1006,24 +1024,28 @@
     </row>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7" s="17"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,7 +1060,9 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1072,9 @@
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1061,12 +1087,12 @@
       <c r="A11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -1081,7 +1107,9 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K13" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1119,9 @@
     <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1113,12 +1143,12 @@
       <c r="A17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="J17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9874FB-B4C7-4ACD-8A1C-CB960449EAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61145C77-4394-44C7-B269-3EB7AAECB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1,2,3" sheetId="1" r:id="rId1"/>
+    <sheet name="Q4" sheetId="2" r:id="rId2"/>
+    <sheet name="Q5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>オブジェクト指向問題　クラス図</t>
     <rPh sb="6" eb="8">
@@ -127,6 +129,44 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q1,2,3</t>
+  </si>
+  <si>
+    <t>加速性能（）</t>
+    <rPh sb="0" eb="4">
+      <t>カソクセイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速性能_比例（）</t>
+    <rPh sb="0" eb="4">
+      <t>カソクセイノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速性能_制限（）</t>
+    <rPh sb="0" eb="4">
+      <t>カソクセイノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイゲン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +586,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,6 +603,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,6 +654,132 @@
         <a:xfrm rot="16200000">
           <a:off x="3389309" y="642930"/>
           <a:ext cx="246062" cy="198437"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682621</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198433</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>126992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="二等辺三角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479A9E5D-5B3B-4610-9EC1-F74EA30D8A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3402802" y="673887"/>
+          <a:ext cx="247649" cy="201612"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682621</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198433</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>126992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="二等辺三角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF8C9A5-CC90-4CBD-AC93-0CC464EACACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3402802" y="673887"/>
+          <a:ext cx="247649" cy="201612"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -935,51 +1113,53 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16"/>
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1033,12 +1213,12 @@
       <c r="E7" s="2"/>
       <c r="H7" s="17"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1061,7 +1241,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1073,7 +1253,7 @@
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1087,12 +1267,12 @@
       <c r="A11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -1143,12 +1323,12 @@
       <c r="A17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1193,4 +1373,598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DC8135-D7BF-41AD-A02C-3195E361B443}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16"/>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="15"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="H5" s="16"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="H6" s="16"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="16"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="H9" s="16"/>
+      <c r="J9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="16"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="4"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="17"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J12:M12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BF25EB-3F99-4335-902B-AFC28413C2BF}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16"/>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="15"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="H5" s="16"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="H6" s="16"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="16"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="H9" s="16"/>
+      <c r="J9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="16"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="4"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16"/>
+      <c r="J20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J12:M12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61145C77-4394-44C7-B269-3EB7AAECB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFA8E1-73DC-4EA9-A33A-A5EEA1098421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1,2,3" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>オブジェクト指向問題　クラス図</t>
     <rPh sb="6" eb="8">
@@ -166,6 +166,17 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車高</t>
+    <rPh sb="0" eb="2">
+      <t>シャコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -516,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,9 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,7 +1121,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1165,7 +1173,7 @@
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1181,7 +1189,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1193,7 +1201,7 @@
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1205,7 +1213,7 @@
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1224,7 +1232,7 @@
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1278,8 +1286,12 @@
     <row r="12" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
       <c r="N12" s="18"/>
@@ -1379,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DC8135-D7BF-41AD-A02C-3195E361B443}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1432,7 +1444,7 @@
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1448,7 +1460,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1460,7 +1472,7 @@
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1472,7 +1484,7 @@
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1491,7 +1503,7 @@
     <row r="8" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1530,10 +1542,9 @@
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29"/>
       <c r="E10" s="2"/>
       <c r="H10" s="16"/>
       <c r="N10" s="18"/>
@@ -1549,7 +1560,6 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="29"/>
       <c r="J11" s="4"/>
       <c r="N11" s="18"/>
     </row>
@@ -1568,8 +1578,12 @@
     <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
       <c r="N13" s="18"/>
@@ -1607,7 +1621,6 @@
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="29"/>
       <c r="J17" s="4"/>
       <c r="N17" s="18"/>
     </row>
@@ -1671,7 +1684,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1821,10 +1834,9 @@
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29"/>
       <c r="E10" s="2"/>
       <c r="H10" s="16"/>
       <c r="N10" s="18"/>
@@ -1840,7 +1852,6 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="29"/>
       <c r="J11" s="4"/>
       <c r="N11" s="18"/>
     </row>
@@ -1859,8 +1870,12 @@
     <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
       <c r="N13" s="18"/>
@@ -1898,7 +1913,6 @@
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="29"/>
       <c r="J17" s="4"/>
       <c r="N17" s="18"/>
     </row>

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFA8E1-73DC-4EA9-A33A-A5EEA1098421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8DA165-A628-47A0-BBE2-2DE638E3C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1,2,3" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
   <si>
     <t>オブジェクト指向問題　クラス図</t>
     <rPh sb="6" eb="8">
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,16 +143,6 @@
   </si>
   <si>
     <t>Q5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加速性能_比例（）</t>
-    <rPh sb="0" eb="4">
-      <t>カソクセイノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒレイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -527,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,15 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,59 +1098,59 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1189,7 +1166,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1201,7 +1178,7 @@
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1213,7 +1190,7 @@
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1221,18 +1198,18 @@
       <c r="E7" s="2"/>
       <c r="H7" s="17"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1249,7 +1226,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1261,7 +1238,7 @@
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1275,22 +1252,22 @@
       <c r="A11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="H12" s="16"/>
       <c r="J12" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
@@ -1300,7 +1277,7 @@
       <c r="A13" s="16"/>
       <c r="H13" s="16"/>
       <c r="J13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
@@ -1312,7 +1289,7 @@
       <c r="A14" s="16"/>
       <c r="H14" s="16"/>
       <c r="J14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>12</v>
@@ -1335,12 +1312,12 @@
       <c r="A17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1391,60 +1368,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DC8135-D7BF-41AD-A02C-3195E361B443}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1460,7 +1437,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1472,7 +1449,7 @@
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1484,7 +1461,7 @@
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1492,18 +1469,18 @@
       <c r="E7" s="2"/>
       <c r="H7" s="17"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1520,7 +1497,7 @@
     <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1528,10 +1505,10 @@
       <c r="E9" s="2"/>
       <c r="H9" s="16"/>
       <c r="J9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
@@ -1540,7 +1517,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1552,10 +1529,10 @@
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1567,22 +1544,22 @@
       <c r="A12" s="16"/>
       <c r="H12" s="17"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="H13" s="16"/>
       <c r="J13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
@@ -1592,7 +1569,7 @@
       <c r="A14" s="16"/>
       <c r="H14" s="16"/>
       <c r="J14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
@@ -1604,7 +1581,7 @@
       <c r="A15" s="16"/>
       <c r="H15" s="16"/>
       <c r="J15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>12</v>
@@ -1666,7 +1643,8 @@
     </row>
     <row r="22" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J3:M3"/>
@@ -1684,53 +1662,53 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1784,12 +1762,12 @@
       <c r="E7" s="2"/>
       <c r="H7" s="17"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -1812,7 +1790,7 @@
     <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1820,10 +1798,10 @@
       <c r="E9" s="2"/>
       <c r="H9" s="16"/>
       <c r="J9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
@@ -1832,7 +1810,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1844,10 +1822,10 @@
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1859,22 +1837,22 @@
       <c r="A12" s="16"/>
       <c r="H12" s="17"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="H13" s="16"/>
       <c r="J13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
@@ -1884,7 +1862,7 @@
       <c r="A14" s="16"/>
       <c r="H14" s="16"/>
       <c r="J14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
@@ -1896,7 +1874,7 @@
       <c r="A15" s="16"/>
       <c r="H15" s="16"/>
       <c r="J15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>12</v>
@@ -1938,12 +1916,8 @@
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
-      <c r="J20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
       <c r="N20" s="18"/>
@@ -1970,7 +1944,8 @@
     </row>
     <row r="23" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J3:M3"/>

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8DA165-A628-47A0-BBE2-2DE638E3C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E342B2-D7C3-492E-A499-FC7511FC157D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
+    <workbookView xWindow="7200" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{28C4433C-A3DB-4020-91D1-3635ED87F831}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1,2,3" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>オブジェクト指向問題　クラス図</t>
     <rPh sb="6" eb="8">
@@ -163,6 +163,20 @@
     <t>車高</t>
     <rPh sb="0" eb="2">
       <t>シャコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速性能＿初期値（）</t>
+    <rPh sb="0" eb="4">
+      <t>カソクセイノウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショキチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1916,8 +1930,12 @@
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="4"/>
+      <c r="J20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
       <c r="N20" s="18"/>
